--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43101,6 +43101,41 @@
         <v>1519600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1222700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43136,6 +43136,41 @@
         <v>1222700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>719200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43171,6 +43171,41 @@
         <v>719200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>850600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43206,6 +43206,41 @@
         <v>850600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>12121800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43241,6 +43241,41 @@
         <v>12121800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10965100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43276,6 +43276,41 @@
         <v>10965100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2957000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,41 @@
         <v>2957000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4513700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43346,6 +43346,41 @@
         <v>4513700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>31037300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43381,6 +43381,41 @@
         <v>31037300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>9157700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,41 @@
         <v>9157700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10550300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,41 @@
         <v>10550300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>40762500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,41 @@
         <v>40762500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>20498400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,76 @@
         <v>20498400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>6991400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>11196000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43591,6 +43591,76 @@
         <v>11196000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>12831600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>9845500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43661,6 +43661,41 @@
         <v>9845500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>7203200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43696,6 +43696,41 @@
         <v>7203200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>6953100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43731,6 +43731,41 @@
         <v>6953100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3594500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43766,6 +43766,41 @@
         <v>3594500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9697800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43801,6 +43801,76 @@
         <v>9697800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>7179400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6940800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43871,6 +43871,41 @@
         <v>6940800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5086400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43906,6 +43906,41 @@
         <v>5086400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7887300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91121,6 +91121,41 @@
         <v>7887300</v>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2590" t="n">
+        <v>4303200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91156,6 +91156,41 @@
         <v>4303200</v>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>5086900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91191,6 +91191,41 @@
         <v>5086900</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>4015500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91226,6 +91226,41 @@
         <v>4015500</v>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2593" t="n">
+        <v>4162500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91261,6 +91261,41 @@
         <v>4162500</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2594" t="n">
+        <v>8053000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91296,6 +91296,41 @@
         <v>8053000</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>4363700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91331,6 +91331,41 @@
         <v>4363700</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>5950700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91366,6 +91366,41 @@
         <v>5950700</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2597" t="n">
+        <v>8142900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91401,6 +91401,41 @@
         <v>8142900</v>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2598" t="n">
+        <v>4525500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2598"/>
+  <dimension ref="A1:I2599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91436,6 +91436,41 @@
         <v>4525500</v>
       </c>
     </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2599" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2599" t="n">
+        <v>5135100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2599"/>
+  <dimension ref="A1:I2600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91471,6 +91471,41 @@
         <v>5135100</v>
       </c>
     </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2600" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2600" t="n">
+        <v>4501000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2600"/>
+  <dimension ref="A1:I2601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91506,6 +91506,41 @@
         <v>4501000</v>
       </c>
     </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2601" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2601" t="n">
+        <v>8160400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2601"/>
+  <dimension ref="A1:I2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91541,6 +91541,41 @@
         <v>8160400</v>
       </c>
     </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2602" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2602" t="n">
+        <v>14740100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2602"/>
+  <dimension ref="A1:I2603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91576,6 +91576,41 @@
         <v>14740100</v>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2603" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2603" t="n">
+        <v>1966000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9008.xlsx
+++ b/data/9008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2603"/>
+  <dimension ref="A1:I2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91611,6 +91611,41 @@
         <v>1966000</v>
       </c>
     </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>1967700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
